--- a/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
+++ b/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,20 +432,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-15</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3518</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
+++ b/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,22 +424,28 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023/07/10</t>
+          <t>2023-07-18</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>5873</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023-07-15</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3518</v>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
+++ b/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,20 +432,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-07-19</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2674</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
+++ b/CollectionSoftware2/ISMAIL STORE(KIL).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,16 @@
         <v>2674</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-07-22</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2674</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
